--- a/datasheets/Chillon_et_al_1994.xlsx
+++ b/datasheets/Chillon_et_al_1994.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -148,10 +148,13 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
-    <t xml:space="preserve">Capra ibex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bovidae</t>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equus przewalskii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equidae</t>
   </si>
   <si>
     <t xml:space="preserve">mammal</t>
@@ -160,10 +163,7 @@
     <t xml:space="preserve">bone</t>
   </si>
   <si>
-    <t xml:space="preserve">Tallin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
+    <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
     <t xml:space="preserve">present-day</t>
@@ -175,103 +175,34 @@
     <t xml:space="preserve">fluorination</t>
   </si>
   <si>
-    <t xml:space="preserve">N = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/0016-7037(95)00286-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capra sp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotland</t>
-  </si>
-  <si>
     <t xml:space="preserve">N = 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sardinia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montecristo Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N = 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovis ammon musimon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circeo National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N = 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capreolus capreolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gröningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mont Bondone, Trento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regensburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
+    <t xml:space="preserve">10.1016/0031-0182(94)90103-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chillon et al. (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equus caballus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tooth, bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">N = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equus przewalskii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/0031-0182(94)90103-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equus caballus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N = 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tooth, bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">Equus asinus</t>
@@ -287,10 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -393,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,11 +344,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,12 +365,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP1048576"/>
+  <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AP25" activeCellId="0" sqref="AP25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="AQ2" activeCellId="0" sqref="AQ:AQ"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,11 +402,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="16.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="11.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="11.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,24 +534,21 @@
       <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -636,43 +560,40 @@
       <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="5" t="n">
-        <v>14.7</v>
+      <c r="K2" s="1" t="n">
+        <v>12.9</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="1" t="n">
-        <v>-11</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+        <v>-13</v>
+      </c>
       <c r="AO2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ2" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>48</v>
@@ -680,46 +601,40 @@
       <c r="I3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="5" t="n">
-        <v>16.2</v>
+      <c r="K3" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="1" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="1" t="n">
-        <v>700</v>
+        <v>-10</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>48</v>
@@ -727,46 +642,40 @@
       <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="5" t="n">
-        <v>1638</v>
+      <c r="K4" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="1" t="n">
-        <v>-8</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+        <v>-5</v>
+      </c>
       <c r="AO4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ4" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>48</v>
@@ -774,49 +683,40 @@
       <c r="I5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="5" t="n">
-        <v>17.4</v>
+      <c r="K5" s="1" t="n">
+        <v>18.9</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="1" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="1" t="n">
-        <v>850</v>
+        <v>-4.5</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ5" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>48</v>
@@ -824,46 +724,37 @@
       <c r="I6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="5" t="n">
-        <v>19.3</v>
+      <c r="K6" s="1" t="n">
+        <v>20.5</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="1" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="AO6" s="1" t="s">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ6" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
@@ -871,522 +762,57 @@
       <c r="I7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="5" t="n">
-        <v>19.4</v>
+      <c r="K7" s="1" t="n">
+        <v>24.7</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="1" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="AO7" s="1" t="s">
-        <v>63</v>
+        <v>-2</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ7" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="AO8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="AO9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="1" t="n">
-        <v>-8</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="AO10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="1" t="n">
-        <v>-9</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="AO11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="1" t="n">
-        <v>-8</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="AO12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="1" t="n">
-        <v>-11</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="AO13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>-13</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L20" s="5"/>
@@ -1427,42 +853,18 @@
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L44" s="5"/>
-    </row>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/datasheets/Chillon_et_al_1994.xlsx
+++ b/datasheets/Chillon_et_al_1994.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">d18Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18Operror</t>
   </si>
   <si>
     <t xml:space="preserve">Method</t>
@@ -365,12 +368,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ1048576"/>
+  <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AQ2" activeCellId="0" sqref="AQ:AQ"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,29 +385,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="13" style="1" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="16.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="11.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="14" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="48.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="16.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="45" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1027" style="1" width="11.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,7 +447,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -537,40 +540,43 @@
       <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>12.9</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="L2" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>-13</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>52</v>
@@ -578,280 +584,292 @@
       <c r="AQ2" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AR2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="1" t="n">
+      <c r="L3" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>-10</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AP3" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AR3" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="L4" s="1" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AP4" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AR4" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>18.9</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="L5" s="1" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="AO5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AP5" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AR5" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>20.5</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1" t="n">
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>-1</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AR6" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>24.7</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="1" t="n">
+      <c r="M7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>-2</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AR7" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
     </row>
     <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
